--- a/实验1&8/不同屏蔽.xlsx
+++ b/实验1&8/不同屏蔽.xlsx
@@ -578,16 +578,16 @@
         <v>15.85143003058737</v>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I4" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J4" t="n">
         <v>0.003851527411863342</v>
       </c>
       <c r="K4" t="n">
-        <v>0.05139946502735117</v>
+        <v>0.04451324245461592</v>
       </c>
     </row>
     <row r="5">

--- a/实验1&8/不同屏蔽.xlsx
+++ b/实验1&8/不同屏蔽.xlsx
@@ -543,16 +543,16 @@
         <v>9.616161256160666</v>
       </c>
       <c r="H3" t="n">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="I3" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="J3" t="n">
         <v>0.0001606354646161989</v>
       </c>
       <c r="K3" t="n">
-        <v>0.02311344156325091</v>
+        <v>0.01634367126593372</v>
       </c>
     </row>
     <row r="4">
@@ -578,16 +578,16 @@
         <v>15.85143003058737</v>
       </c>
       <c r="H4" t="n">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="I4" t="n">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="J4" t="n">
         <v>0.003851527411863342</v>
       </c>
       <c r="K4" t="n">
-        <v>0.04451324245461592</v>
+        <v>0.02225662122730796</v>
       </c>
     </row>
     <row r="5">
@@ -613,16 +613,16 @@
         <v>18.51097748333973</v>
       </c>
       <c r="H5" t="n">
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="I5" t="n">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="J5" t="n">
         <v>0.000413142756742646</v>
       </c>
       <c r="K5" t="n">
-        <v>0.03536582703468532</v>
+        <v>0.02041846975858931</v>
       </c>
     </row>
     <row r="6">

--- a/实验1&8/不同屏蔽.xlsx
+++ b/实验1&8/不同屏蔽.xlsx
@@ -508,16 +508,16 @@
         <v>7.50915655446454</v>
       </c>
       <c r="H2" t="n">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="I2" t="n">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0003434904957064777</v>
+        <v>0.001282525764456199</v>
       </c>
       <c r="K2" t="n">
-        <v>0.01294662510703677</v>
+        <v>0.01513068735488365</v>
       </c>
     </row>
     <row r="3">
@@ -613,16 +613,16 @@
         <v>18.51097748333973</v>
       </c>
       <c r="H5" t="n">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="I5" t="n">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="J5" t="n">
-        <v>0.000413142756742646</v>
+        <v>0.004334711384193835</v>
       </c>
       <c r="K5" t="n">
-        <v>0.02041846975858931</v>
+        <v>0.02347172658559486</v>
       </c>
     </row>
     <row r="6">
@@ -648,16 +648,16 @@
         <v>28.97039113716639</v>
       </c>
       <c r="H6" t="n">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="I6" t="n">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0006071752617138326</v>
+        <v>0.00127162708895634</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0266469248939366</v>
+        <v>0.02953983992315691</v>
       </c>
     </row>
     <row r="7">
@@ -683,16 +683,16 @@
         <v>39.57556599735683</v>
       </c>
       <c r="H7" t="n">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="I7" t="n">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="J7" t="n">
-        <v>0.0002719063761875695</v>
+        <v>0.001803859062317725</v>
       </c>
       <c r="K7" t="n">
-        <v>0.03012800139121885</v>
+        <v>0.03227169445641703</v>
       </c>
     </row>
     <row r="8">
@@ -718,16 +718,16 @@
         <v>53.34512227207613</v>
       </c>
       <c r="H8" t="n">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="I8" t="n">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J8" t="n">
-        <v>0.0001464206918264654</v>
+        <v>0.0003437753866049054</v>
       </c>
       <c r="K8" t="n">
-        <v>0.03390692199701981</v>
+        <v>0.03828218041262735</v>
       </c>
     </row>
   </sheetData>
